--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="H2">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="I2">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="J2">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="N2">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="O2">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="P2">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="Q2">
-        <v>373.1673516515999</v>
+        <v>213.086889470016</v>
       </c>
       <c r="R2">
-        <v>3358.5061648644</v>
+        <v>1917.782005230144</v>
       </c>
       <c r="S2">
-        <v>0.1906758458538097</v>
+        <v>0.09011977212530299</v>
       </c>
       <c r="T2">
-        <v>0.1906758458538098</v>
+        <v>0.09011977212530296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="H3">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="I3">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="J3">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>13.929753</v>
       </c>
       <c r="O3">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="P3">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="Q3">
-        <v>89.69618692253999</v>
+        <v>67.779837899496</v>
       </c>
       <c r="R3">
-        <v>807.2656823028599</v>
+        <v>610.018541095464</v>
       </c>
       <c r="S3">
-        <v>0.04583170589715605</v>
+        <v>0.02866578775158323</v>
       </c>
       <c r="T3">
-        <v>0.04583170589715606</v>
+        <v>0.02866578775158322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="H4">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="I4">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="J4">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="N4">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="O4">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="P4">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="Q4">
-        <v>391.7225120571399</v>
+        <v>428.950748189088</v>
       </c>
       <c r="R4">
-        <v>3525.502608514259</v>
+        <v>3860.556733701791</v>
       </c>
       <c r="S4">
-        <v>0.2001569027834166</v>
+        <v>0.1814139939623941</v>
       </c>
       <c r="T4">
-        <v>0.2001569027834167</v>
+        <v>0.1814139939623941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>13.929753</v>
       </c>
       <c r="I5">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="J5">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="N5">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="O5">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="P5">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="Q5">
-        <v>89.69618692253999</v>
+        <v>67.779837899496</v>
       </c>
       <c r="R5">
-        <v>807.2656823028599</v>
+        <v>610.018541095464</v>
       </c>
       <c r="S5">
-        <v>0.04583170589715605</v>
+        <v>0.02866578775158323</v>
       </c>
       <c r="T5">
-        <v>0.04583170589715606</v>
+        <v>0.02866578775158322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>13.929753</v>
       </c>
       <c r="I6">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="J6">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>13.929753</v>
       </c>
       <c r="O6">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="P6">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="Q6">
         <v>21.559779849001</v>
@@ -815,10 +815,10 @@
         <v>194.038018641009</v>
       </c>
       <c r="S6">
-        <v>0.01101631544382337</v>
+        <v>0.009118169831546903</v>
       </c>
       <c r="T6">
-        <v>0.01101631544382337</v>
+        <v>0.0091181698315469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>13.929753</v>
       </c>
       <c r="I7">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="J7">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="N7">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="O7">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="P7">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="Q7">
-        <v>94.15618892632433</v>
+        <v>136.442989296228</v>
       </c>
       <c r="R7">
-        <v>847.4057003369189</v>
+        <v>1227.986903666052</v>
       </c>
       <c r="S7">
-        <v>0.04811061548240626</v>
+        <v>0.05770515086148204</v>
       </c>
       <c r="T7">
-        <v>0.04811061548240626</v>
+        <v>0.05770515086148202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="H8">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="I8">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="J8">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>19.31754</v>
+        <v>14.597496</v>
       </c>
       <c r="N8">
-        <v>57.95262</v>
+        <v>43.792488</v>
       </c>
       <c r="O8">
-        <v>0.4366644545343824</v>
+        <v>0.3001995538392804</v>
       </c>
       <c r="P8">
-        <v>0.4366644545343825</v>
+        <v>0.3001995538392803</v>
       </c>
       <c r="Q8">
-        <v>391.7225120571399</v>
+        <v>428.950748189088</v>
       </c>
       <c r="R8">
-        <v>3525.502608514259</v>
+        <v>3860.556733701791</v>
       </c>
       <c r="S8">
-        <v>0.2001569027834166</v>
+        <v>0.1814139939623941</v>
       </c>
       <c r="T8">
-        <v>0.2001569027834167</v>
+        <v>0.1814139939623941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="H9">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="I9">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="J9">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>13.929753</v>
       </c>
       <c r="O9">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461217</v>
       </c>
       <c r="P9">
-        <v>0.1049586368233857</v>
+        <v>0.09548910844461216</v>
       </c>
       <c r="Q9">
-        <v>94.15618892632433</v>
+        <v>136.442989296228</v>
       </c>
       <c r="R9">
-        <v>847.4057003369189</v>
+        <v>1227.986903666052</v>
       </c>
       <c r="S9">
-        <v>0.04811061548240626</v>
+        <v>0.05770515086148204</v>
       </c>
       <c r="T9">
-        <v>0.04811061548240626</v>
+        <v>0.05770515086148202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="H10">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="I10">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="J10">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.27807433333333</v>
+        <v>29.385228</v>
       </c>
       <c r="N10">
-        <v>60.83422299999999</v>
+        <v>88.15568399999999</v>
       </c>
       <c r="O10">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="P10">
-        <v>0.4583769086422319</v>
+        <v>0.6043113377161075</v>
       </c>
       <c r="Q10">
-        <v>411.2002986681921</v>
+        <v>863.4916246119839</v>
       </c>
       <c r="R10">
-        <v>3700.802688013728</v>
+        <v>7771.424621507855</v>
       </c>
       <c r="S10">
-        <v>0.210109390376409</v>
+        <v>0.3651921928922313</v>
       </c>
       <c r="T10">
-        <v>0.210109390376409</v>
+        <v>0.3651921928922313</v>
       </c>
     </row>
   </sheetData>
